--- a/HuaweiCloud/Sysbench_Huawei_PG15_8C32G.xlsx
+++ b/HuaweiCloud/Sysbench_Huawei_PG15_8C32G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/HuaweiCloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72282FC7-EE1E-2A4D-84D3-F0262002D835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080AE47-FA45-9343-9BED-137968391281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13460" yWindow="500" windowWidth="23140" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Thread</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>run1:</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -2717,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7D2C7-6C6F-7146-830A-4360D5AD83F5}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2792,9 +2795,8 @@
         <f>(K2+P2)/2</f>
         <v>7.335</v>
       </c>
-      <c r="E2" s="3">
-        <f>Q2</f>
-        <v>0</v>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <f>B2/$B$13</f>
@@ -2838,12 +2840,9 @@
         <f t="shared" ref="D3:D8" si="2">(K3+P3)/2</f>
         <v>7.17</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E8" si="3">Q3</f>
-        <v>0</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F8" si="4">B3/$B$13</f>
+        <f t="shared" ref="F3:F8" si="3">B3/$B$13</f>
         <v>1.175154801054721</v>
       </c>
       <c r="G3" s="1"/>
@@ -2884,12 +2883,9 @@
         <f t="shared" si="2"/>
         <v>8.370000000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="4"/>
         <v>2.1105679495155987</v>
       </c>
       <c r="G4" s="1"/>
@@ -2930,12 +2926,9 @@
         <f t="shared" si="2"/>
         <v>10.4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="4"/>
         <v>3.4021272183213354</v>
       </c>
       <c r="G5" s="1"/>
@@ -2976,12 +2969,9 @@
         <f t="shared" si="2"/>
         <v>15.695</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="4"/>
         <v>4.6994044973780111</v>
       </c>
       <c r="G6" s="1"/>
@@ -3022,12 +3012,9 @@
         <f t="shared" si="2"/>
         <v>34.335000000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="4"/>
         <v>4.9312875892513262</v>
       </c>
       <c r="G7" s="1"/>
@@ -3068,12 +3055,9 @@
         <f t="shared" si="2"/>
         <v>69.569999999999993</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="4"/>
         <v>5.0198056469054606</v>
       </c>
       <c r="G8" s="1"/>
@@ -3102,7 +3086,25 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f>B7/B6</f>
+        <v>1.0493430799588952</v>
+      </c>
+      <c r="D10" s="2">
+        <f>D7/D6</f>
+        <v>2.1876393755973238</v>
+      </c>
       <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>B8/B6</f>
+        <v>1.0681790958208033</v>
+      </c>
+      <c r="D11">
+        <f>D8/D6</f>
+        <v>4.4326218540936599</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">

--- a/HuaweiCloud/Sysbench_Huawei_PG15_8C32G.xlsx
+++ b/HuaweiCloud/Sysbench_Huawei_PG15_8C32G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/HuaweiCloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080AE47-FA45-9343-9BED-137968391281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF326B-6E1F-0644-97C9-2D040FEB5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="500" windowWidth="23140" windowHeight="19400" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
+    <workbookView xWindow="5660" yWindow="500" windowWidth="23140" windowHeight="16020" xr2:uid="{1C006222-4FFB-AD41-A2F8-DEE8063218B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
